--- a/sample_data/sample_mentees.xlsx
+++ b/sample_data/sample_mentees.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maggiewang/Documents/stanford/repos/dbds-p2p/sample_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7BD13E6-3BC5-EC41-BC31-4F7F050948F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C52A4A-C1DE-5E45-A9F0-F60862DC3418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4460" yWindow="-21100" windowWidth="19200" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
@@ -2017,7 +2017,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
